--- a/SupplierPOM/TestData/SupplierData.xlsx
+++ b/SupplierPOM/TestData/SupplierData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dpandya\eclipse-workspace\SupplierPOM\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dpandya\git\SupplierPortal\SupplierPOM\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{382A15B9-1F15-4F9F-9291-8D25F6208B4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E77A9419-4B27-49E2-8EC9-A6C1ECF63C5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0D32C929-7256-48BD-89C1-58BE96146184}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
   <si>
     <t>FirstName</t>
   </si>
@@ -111,19 +111,83 @@
   </si>
   <si>
     <t>Sitka</t>
+  </si>
+  <si>
+    <t>Gilchrist@yopmial.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Isabelle </t>
+  </si>
+  <si>
+    <t>Levy</t>
+  </si>
+  <si>
+    <t>Levy@yopmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Random House </t>
+  </si>
+  <si>
+    <t>4264 Cherry Tree Drive</t>
+  </si>
+  <si>
+    <t>Jacksonville</t>
+  </si>
+  <si>
+    <t>904-381-7515</t>
+  </si>
+  <si>
+    <t>4009 Langtown Road</t>
+  </si>
+  <si>
+    <t> Davenport</t>
+  </si>
+  <si>
+    <t>563-657-7496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infobell </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Titus </t>
+  </si>
+  <si>
+    <t>Villalobos</t>
+  </si>
+  <si>
+    <t>Villalobos@yopmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Inherit"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -143,16 +207,33 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -465,13 +546,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{920578D2-615D-4E09-9BA2-49F96A5E96C2}">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.5703125" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
@@ -481,13 +562,14 @@
     <col min="6" max="6" width="18.7109375" customWidth="1"/>
     <col min="7" max="7" width="23.5703125" customWidth="1"/>
     <col min="8" max="8" width="25" customWidth="1"/>
-    <col min="9" max="9" width="24.42578125" customWidth="1"/>
+    <col min="9" max="9" width="46.140625" customWidth="1"/>
+    <col min="10" max="10" width="14" customWidth="1"/>
     <col min="11" max="11" width="21" customWidth="1"/>
     <col min="12" max="12" width="18.5703125" customWidth="1"/>
     <col min="13" max="13" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -528,89 +610,178 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:13">
+      <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="2">
         <v>985877854</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="2">
         <v>587874589</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2" s="2">
         <v>2012</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="1">
+      <c r="K2" s="2">
         <v>99835</v>
       </c>
-      <c r="L2" s="1">
+      <c r="L2" s="2">
         <v>9989325789</v>
       </c>
-      <c r="M2" s="1">
+      <c r="M2" s="2">
         <v>78945</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:13">
+      <c r="A3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="1">
+      <c r="C3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="2">
         <v>985877878</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="2">
         <v>587874885</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="2">
         <v>2005</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="1">
+      <c r="K3" s="2">
         <v>87546</v>
       </c>
-      <c r="L3" s="1">
+      <c r="L3" s="2">
         <v>7894546533</v>
       </c>
-      <c r="M3" s="1">
+      <c r="M3" s="2">
         <v>78789</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="2">
+        <v>859647859</v>
+      </c>
+      <c r="E4" s="2">
+        <v>127874885</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="2">
+        <v>2020</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" s="6">
+        <v>32205</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="M4" s="2">
+        <v>78456</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="2">
+        <v>859787859</v>
+      </c>
+      <c r="E5" s="2">
+        <v>127874784</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="2">
+        <v>2015</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" s="6">
+        <v>52803</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="M5" s="2">
+        <v>25694</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{F2B9AA8E-B760-463D-BC38-4F70E7177E4B}"/>
+    <hyperlink ref="C4" r:id="rId2" xr:uid="{0FBDA09F-F695-43D7-AF01-01EE5B0B29F8}"/>
+    <hyperlink ref="G4" r:id="rId3" xr:uid="{FE1F7C64-AAF7-42E4-A2F2-9B08F2CEDD62}"/>
+    <hyperlink ref="G5" r:id="rId4" xr:uid="{576F0BBC-CA9E-465B-BA8B-DC3F1D69AC9A}"/>
+    <hyperlink ref="C5" r:id="rId5" xr:uid="{13203B5B-9B82-4BE0-BEC9-CB2336711F73}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>